--- a/KiCad_PCB/BOM.xlsx
+++ b/KiCad_PCB/BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic_sdk\nRF5_SDK_17.1.0_ddde560\projects\TFG_BLE\KiCad_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Workspace\ble_device_tfg\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E2548-A462-408C-9F4C-9F99D8B55D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="545"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="24825" windowHeight="11385" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM template" sheetId="5" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>NO</t>
   </si>
@@ -192,9 +193,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>CHP0805AFX-1001ELF</t>
-  </si>
-  <si>
     <t>200Ohms resistor</t>
   </si>
   <si>
@@ -214,12 +212,6 @@
   </si>
   <si>
     <t>BOM</t>
-  </si>
-  <si>
-    <t>C0805X120J5GACAUTO</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/C0805X120J5GACAUTO?qs=PqoDHHvF64%2FG1xFjMXSvqA%3D%3D</t>
   </si>
   <si>
     <r>
@@ -236,36 +228,6 @@
     </r>
   </si>
   <si>
-    <t>C0805C104K8RACAUTO</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/C0805C104K8RACAUTO?qs=ds50AKTGxA8vmn6TMGYnqg%3D%3D</t>
-  </si>
-  <si>
-    <t>C0805X105K8RAC7210</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/C0805X105K8RAC7210?qs=ds50AKTGxA8Ac4j4qbsB5A%3D%3D</t>
-  </si>
-  <si>
-    <t>C0805C101FCGACAUTO</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/C0805C101FCGACAUTO?qs=OlC7AqGiEDnYvzW7uZC9yw%3D%3D</t>
-  </si>
-  <si>
-    <t>CBR08C808C5GAC</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/CBR08C808C5GAC?qs=3SGS%2FGl3GGzuXDI0BU2LZQ%3D%3D</t>
-  </si>
-  <si>
-    <t>C0805C475M3RACTU</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/KEMET/C0805C475M3RACTU?qs=PzGy0jfpSMthyF9XXKyBLQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.es/ProductDetail/Dialight/597-3111-407F?qs=DVhSRDYZfLqO0KXLkTIRsA%3D%3D</t>
   </si>
   <si>
@@ -311,22 +273,16 @@
     <t>https://www.mouser.es/ProductDetail/Linx-Technologies/BAT-HLD-001-THM-TR?qs=1sbE9T7hb3a7mD8p42MgHg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.es/ProductDetail/Bourns/CHP0805AFX-1001ELF?qs=sGAEpiMZZMtG0KNrPCHnjcm3Ue9w12BKKpz%252Bn6xpjjesk7TXUsCyig%3D%3D</t>
-  </si>
-  <si>
-    <t>CR0805-JW-201ELF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/Bourns/CR0805-JW-201ELF?qs=sGAEpiMZZMtG0KNrPCHnjfC2zYK6Lg3%2FuH7eLrg3%2FwE%3D</t>
-  </si>
-  <si>
     <t>Headers &amp; Wire Housings</t>
+  </si>
+  <si>
+    <t>0603</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -710,9 +666,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,9 +681,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,32 +722,38 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Hipervínculo" xfId="22" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="常规 10" xfId="9"/>
-    <cellStyle name="常规 11" xfId="11"/>
-    <cellStyle name="常规 12" xfId="2"/>
-    <cellStyle name="常规 13" xfId="12"/>
-    <cellStyle name="常规 2" xfId="13"/>
-    <cellStyle name="常规 3" xfId="14"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 3 3" xfId="7"/>
-    <cellStyle name="常规 4" xfId="15"/>
-    <cellStyle name="常规 5" xfId="16"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 7" xfId="17"/>
-    <cellStyle name="常规 8" xfId="3"/>
-    <cellStyle name="常规 9" xfId="4"/>
-    <cellStyle name="超链接 2" xfId="18"/>
-    <cellStyle name="超链接 3" xfId="19"/>
-    <cellStyle name="超链接 4" xfId="20"/>
-    <cellStyle name="超链接 5" xfId="21"/>
-    <cellStyle name="适中 2" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 11" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 13" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 5" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 7" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="超链接 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="超链接 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="超链接 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="超链接 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,11 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1120,16 +1076,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -1141,10 +1097,10 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1167,19 +1123,17 @@
       <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>94</v>
-      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="16">
         <v>200</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="G3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A4" s="14">
@@ -1191,19 +1145,17 @@
       <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>57</v>
-      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="38" t="s">
-        <v>93</v>
-      </c>
+      <c r="G4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A5" s="17">
@@ -1222,9 +1174,9 @@
         <v>33</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="38" t="s">
-        <v>92</v>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="15">
@@ -1237,19 +1189,17 @@
       <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A7" s="18">
@@ -1261,19 +1211,17 @@
       <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="47" t="s">
-        <v>69</v>
-      </c>
+      <c r="G7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A8" s="17">
@@ -1285,43 +1233,39 @@
       <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>70</v>
-      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="47" t="s">
-        <v>71</v>
-      </c>
+      <c r="G8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>72</v>
-      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="47" t="s">
-        <v>73</v>
-      </c>
+      <c r="G9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A10" s="17">
@@ -1333,19 +1277,17 @@
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="47" t="s">
-        <v>75</v>
-      </c>
+      <c r="G10" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A11" s="18">
@@ -1357,19 +1299,17 @@
       <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>76</v>
-      </c>
+      <c r="D11" s="26"/>
       <c r="E11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="47" t="s">
-        <v>77</v>
-      </c>
+      <c r="G11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="15">
       <c r="A12" s="18">
@@ -1388,9 +1328,9 @@
         <v>30</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="47" t="s">
-        <v>78</v>
+      <c r="G12" s="39"/>
+      <c r="H12" s="45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15">
@@ -1410,9 +1350,9 @@
         <v>32</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="47" t="s">
-        <v>79</v>
+      <c r="G13" s="40"/>
+      <c r="H13" s="45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -1429,12 +1369,12 @@
         <v>34</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="47" t="s">
-        <v>80</v>
+      <c r="G14" s="41"/>
+      <c r="H14" s="45" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15">
@@ -1448,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>40</v>
@@ -1456,9 +1396,9 @@
       <c r="F15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="38" t="s">
-        <v>82</v>
+      <c r="G15" s="40"/>
+      <c r="H15" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -1471,8 +1411,8 @@
       <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>83</v>
+      <c r="D16" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>41</v>
@@ -1480,9 +1420,9 @@
       <c r="F16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="38" t="s">
-        <v>84</v>
+      <c r="G16" s="42"/>
+      <c r="H16" s="36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -1495,8 +1435,8 @@
       <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>85</v>
+      <c r="D17" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>42</v>
@@ -1504,9 +1444,9 @@
       <c r="F17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="38" t="s">
-        <v>86</v>
+      <c r="G17" s="42"/>
+      <c r="H17" s="36" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15">
@@ -1519,16 +1459,16 @@
       <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>87</v>
+      <c r="D18" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="38" t="s">
-        <v>88</v>
+      <c r="G18" s="42"/>
+      <c r="H18" s="36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15">
@@ -1548,9 +1488,9 @@
         <v>48</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="38" t="s">
-        <v>89</v>
+      <c r="G19" s="42"/>
+      <c r="H19" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
@@ -1572,43 +1512,43 @@
       <c r="F20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="38" t="s">
-        <v>90</v>
+      <c r="G20" s="42"/>
+      <c r="H20" s="36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="35">
-        <v>1</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="50" t="s">
-        <v>91</v>
+      <c r="G21" s="43"/>
+      <c r="H21" s="48" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="14.25">
@@ -1618,40 +1558,32 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="14.25">
       <c r="G24" s="22"/>
-      <c r="H24" s="48"/>
+      <c r="H24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H8" r:id="rId3"/>
-    <hyperlink ref="H9" r:id="rId4"/>
-    <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="H11" r:id="rId6"/>
-    <hyperlink ref="H12" r:id="rId7"/>
-    <hyperlink ref="H13" r:id="rId8"/>
-    <hyperlink ref="H14" r:id="rId9"/>
-    <hyperlink ref="H15" r:id="rId10"/>
-    <hyperlink ref="H16" r:id="rId11"/>
-    <hyperlink ref="H17" r:id="rId12"/>
-    <hyperlink ref="H18" r:id="rId13"/>
-    <hyperlink ref="H19" r:id="rId14"/>
-    <hyperlink ref="H20" r:id="rId15"/>
-    <hyperlink ref="H21" r:id="rId16"/>
-    <hyperlink ref="H5" r:id="rId17"/>
-    <hyperlink ref="H4" r:id="rId18"/>
-    <hyperlink ref="H3" r:id="rId19"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39305555555555599" bottom="0.39305555555555599" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
